--- a/Assets/Data/DML Excel.xlsx
+++ b/Assets/Data/DML Excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Personnage</t>
   </si>
@@ -36,18 +36,6 @@
     <t>Sirène</t>
   </si>
   <si>
-    <t>Mange</t>
-  </si>
-  <si>
-    <t>Jongle</t>
-  </si>
-  <si>
-    <t>Renifle</t>
-  </si>
-  <si>
-    <t>Est Allongé</t>
-  </si>
-  <si>
     <t>Plage</t>
   </si>
   <si>
@@ -61,6 +49,108 @@
   </si>
   <si>
     <t>Contexte</t>
+  </si>
+  <si>
+    <t>Manger</t>
+  </si>
+  <si>
+    <t>Jongler</t>
+  </si>
+  <si>
+    <t>Renifler</t>
+  </si>
+  <si>
+    <t>HLM</t>
+  </si>
+  <si>
+    <t>Rue</t>
+  </si>
+  <si>
+    <t>Ile</t>
+  </si>
+  <si>
+    <t>Forêt</t>
+  </si>
+  <si>
+    <t>Mer</t>
+  </si>
+  <si>
+    <t>Fleuve</t>
+  </si>
+  <si>
+    <t>Maison</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>Château</t>
+  </si>
+  <si>
+    <t>Lune</t>
+  </si>
+  <si>
+    <t>Grotte</t>
+  </si>
+  <si>
+    <t>Cuisine</t>
+  </si>
+  <si>
+    <t>Salon</t>
+  </si>
+  <si>
+    <t>Chambre</t>
+  </si>
+  <si>
+    <t>Toilettes</t>
+  </si>
+  <si>
+    <t>Appartement</t>
+  </si>
+  <si>
+    <t>Laboratoire</t>
+  </si>
+  <si>
+    <t>Salle de classe</t>
+  </si>
+  <si>
+    <t>Prison</t>
+  </si>
+  <si>
+    <t>Cellule</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>Enfant</t>
+  </si>
+  <si>
+    <t>Cochon</t>
+  </si>
+  <si>
+    <t>Aigle</t>
+  </si>
+  <si>
+    <t>Chevalier</t>
+  </si>
+  <si>
+    <t>Dauphin</t>
+  </si>
+  <si>
+    <t>Baleine</t>
+  </si>
+  <si>
+    <t>Copuler</t>
+  </si>
+  <si>
+    <t>Troll</t>
+  </si>
+  <si>
+    <t>Chèvre</t>
+  </si>
+  <si>
+    <t>Sorcière</t>
   </si>
 </sst>
 </file>
@@ -78,18 +168,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -124,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -136,6 +232,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -184,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,7 +318,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -428,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +546,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -455,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -466,10 +565,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -477,10 +576,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -488,10 +587,140 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/DML Excel.xlsx
+++ b/Assets/Data/DML Excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="74">
   <si>
     <t>Personnage</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Renifler</t>
   </si>
   <si>
-    <t>HLM</t>
-  </si>
-  <si>
     <t>Rue</t>
   </si>
   <si>
@@ -151,6 +148,96 @@
   </si>
   <si>
     <t>Sorcière</t>
+  </si>
+  <si>
+    <t>Nain</t>
+  </si>
+  <si>
+    <t>Crabe</t>
+  </si>
+  <si>
+    <t>Perroquet</t>
+  </si>
+  <si>
+    <t>Lama</t>
+  </si>
+  <si>
+    <t>Serpent</t>
+  </si>
+  <si>
+    <t>Chien</t>
+  </si>
+  <si>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>Dinosaure</t>
+  </si>
+  <si>
+    <t>Renard</t>
+  </si>
+  <si>
+    <t>Sauter</t>
+  </si>
+  <si>
+    <t>Tricoter</t>
+  </si>
+  <si>
+    <t>Pleurer</t>
+  </si>
+  <si>
+    <t>Chanter</t>
+  </si>
+  <si>
+    <t>Jouer</t>
+  </si>
+  <si>
+    <t>Aéroport</t>
+  </si>
+  <si>
+    <t>Cuisiner</t>
+  </si>
+  <si>
+    <t>Courir</t>
+  </si>
+  <si>
+    <t>Dormir</t>
+  </si>
+  <si>
+    <t>Nager</t>
+  </si>
+  <si>
+    <t>Boire</t>
+  </si>
+  <si>
+    <t>Vomir</t>
+  </si>
+  <si>
+    <t>Se laver</t>
+  </si>
+  <si>
+    <t>Se battre</t>
+  </si>
+  <si>
+    <t>Voler</t>
+  </si>
+  <si>
+    <t>Construire</t>
+  </si>
+  <si>
+    <t>Dessiner</t>
+  </si>
+  <si>
+    <t>S'habiller</t>
+  </si>
+  <si>
+    <t>Tomber</t>
+  </si>
+  <si>
+    <t>Conduire</t>
+  </si>
+  <si>
+    <t>Danser</t>
   </si>
 </sst>
 </file>
@@ -530,7 +617,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +674,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
@@ -595,132 +682,222 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="1" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="1" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="1" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="1" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="1" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="1" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/DML Excel.xlsx
+++ b/Assets/Data/DML Excel.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -370,7 +370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -405,7 +405,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -617,7 +617,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
